--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8195" windowHeight="9072"/>
+    <workbookView windowWidth="6947" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Benchmark Data</t>
   </si>
@@ -22,10 +22,13 @@
     <t>Best known Solution</t>
   </si>
   <si>
-    <t>My Scheme 1 (Degree Sorted + Kempe Chain 2000 iterations)</t>
+    <t>My Scheme 1 (Degree Sorted + Kempe Chain 25000 iterations)</t>
   </si>
   <si>
-    <t>My Scheme 2 (Dsatur Algorithm + Kempe Chain 2000 iterations)</t>
+    <t>My Scheme 2 (Dsatur Algorithm + Kempe Chain 25000 iterations)</t>
+  </si>
+  <si>
+    <t>My Scheme 3 (Random Ordering + Kempe Chain 25000 iterations)</t>
   </si>
   <si>
     <t>TimeSlots</t>
@@ -54,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,8 +78,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,70 +108,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,8 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,25 +207,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,71 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,7 +437,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,20 +495,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,130 +538,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="28.8888888888889" customWidth="1"/>
@@ -1003,9 +1006,11 @@
     <col min="5" max="5" width="23.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="35.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="31.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,30 +1026,39 @@
         <v>3</v>
       </c>
       <c r="G1" s="1"/>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>35</v>
@@ -1056,18 +1070,24 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>6.96661940210327</v>
+        <v>6.23</v>
       </c>
       <c r="F3">
         <v>31</v>
       </c>
       <c r="G3">
-        <v>7.9955098664776</v>
+        <v>7.58</v>
+      </c>
+      <c r="H3">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>4.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1079,18 +1099,24 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>5.82648352244964</v>
+        <v>4.96</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4">
-        <v>6.18665508442369</v>
+        <v>5.86</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>3.18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1102,18 +1128,24 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>18.6713404374649</v>
+        <v>16.42</v>
       </c>
       <c r="F5">
         <v>19</v>
       </c>
       <c r="G5">
-        <v>20.122265844083</v>
+        <v>17.38</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>9.84</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -1125,18 +1157,24 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>10.4328289775332</v>
+        <v>9.7</v>
       </c>
       <c r="F6">
         <v>23</v>
       </c>
       <c r="G6">
-        <v>10.6783585511233</v>
+        <v>9.98</v>
+      </c>
+      <c r="H6">
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -1148,13 +1186,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>39.6333687566418</v>
+        <v>37.05</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <v>48.0935175345377</v>
+        <v>44.85</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>32.88</v>
       </c>
     </row>
   </sheetData>
